--- a/R/practice/configure shiny ui/bbos_developer_config.xlsx
+++ b/R/practice/configure shiny ui/bbos_developer_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\git repos\operating-system\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\Development\learning\R\practice\configure shiny ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE60558F-79F9-41E6-9225-FCD023C14C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279009F7-2DCD-4B4E-9149-C11C1BD88D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD3DC31-2CEF-44B9-956F-90112AADF1F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>module</t>
   </si>
@@ -145,6 +145,30 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>home1</t>
+  </si>
+  <si>
+    <t>data1</t>
+  </si>
+  <si>
+    <t>nesting1</t>
+  </si>
+  <si>
+    <t>rois1</t>
+  </si>
+  <si>
+    <t>reoptimise1</t>
+  </si>
+  <si>
+    <t>download1</t>
+  </si>
+  <si>
+    <t>modellingtool1</t>
+  </si>
+  <si>
+    <t>modellingtool</t>
   </si>
 </sst>
 </file>
@@ -499,7 +523,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -508,6 +532,7 @@
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" customWidth="1"/>
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.54296875" customWidth="1"/>
     <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,9 +590,8 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="str">
-        <f>_xlfn.CONCAT(F2,1)</f>
-        <v>home1</v>
+      <c r="I2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -595,9 +619,8 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I8" si="0">_xlfn.CONCAT(F3,1)</f>
-        <v>data1</v>
+      <c r="I3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -617,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -625,9 +648,8 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" t="str">
-        <f t="shared" si="0"/>
-        <v>modelling tool1</v>
+      <c r="I4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -655,9 +677,8 @@
       <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" t="str">
-        <f t="shared" si="0"/>
-        <v>nesting1</v>
+      <c r="I5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -685,9 +706,8 @@
       <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="str">
-        <f t="shared" si="0"/>
-        <v>rois1</v>
+      <c r="I6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -715,9 +735,8 @@
       <c r="H7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="str">
-        <f t="shared" si="0"/>
-        <v>reoptimise1</v>
+      <c r="I7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -745,9 +764,8 @@
       <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>download1</v>
+      <c r="I8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/R/practice/configure shiny ui/bbos_developer_config.xlsx
+++ b/R/practice/configure shiny ui/bbos_developer_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\Development\learning\R\practice\configure shiny ui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279009F7-2DCD-4B4E-9149-C11C1BD88D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410C0CA-EE95-4A2D-B90F-E11F0C40C7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD3DC31-2CEF-44B9-956F-90112AADF1F0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>module</t>
   </si>
@@ -141,9 +141,6 @@
     <t>mod_ui</t>
   </si>
   <si>
-    <t>server_ui</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -169,6 +166,75 @@
   </si>
   <si>
     <t>modellingtool</t>
+  </si>
+  <si>
+    <t>sidebar_parent</t>
+  </si>
+  <si>
+    <t>menuItem</t>
+  </si>
+  <si>
+    <t>sidebar_type</t>
+  </si>
+  <si>
+    <t>menuSubItem</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t>Optimise</t>
+  </si>
+  <si>
+    <t>Compare</t>
+  </si>
+  <si>
+    <t>reoptimise_setup</t>
+  </si>
+  <si>
+    <t>reoptimise_optimise</t>
+  </si>
+  <si>
+    <t>reoptimise_compare</t>
+  </si>
+  <si>
+    <t>reoptimise2</t>
+  </si>
+  <si>
+    <t>reoptimise3</t>
+  </si>
+  <si>
+    <t>reoptimise4</t>
+  </si>
+  <si>
+    <t>mod_server</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>sidebar_parent_tabname</t>
+  </si>
+  <si>
+    <t>Download1</t>
+  </si>
+  <si>
+    <t>Download2</t>
+  </si>
+  <si>
+    <t>Download3</t>
+  </si>
+  <si>
+    <t>download2</t>
+  </si>
+  <si>
+    <t>download3</t>
+  </si>
+  <si>
+    <t>download4</t>
   </si>
 </sst>
 </file>
@@ -520,23 +586,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC2CE33-B47B-4547-92CA-2E60C61B9577}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,22 +622,31 @@
         <v>16</v>
       </c>
       <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -579,22 +660,31 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -608,22 +698,31 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -637,22 +736,31 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -666,22 +774,31 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -695,22 +812,31 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -724,48 +850,294 @@
         <v>13</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>3</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1.01</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1.01</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1.01</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1.01</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="K11" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>1.01</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1.01</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
+      <c r="L12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1.01</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.01</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
